--- a/REGULAR/RE-ENCODE/ANGCAYA, FRANCIS.xlsx
+++ b/REGULAR/RE-ENCODE/ANGCAYA, FRANCIS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F785959B-2CB0-4BE3-BDB7-D59503534F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -264,7 +263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -950,25 +949,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1275,34 +1274,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1322,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1342,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1363,7 +1362,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1371,7 +1370,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1384,7 +1383,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1401,7 +1400,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1445,7 +1444,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>148.99</v>
+        <v>150.24</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1455,12 +1454,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>340.62</v>
+        <v>340.87</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1482,7 +1481,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>43121</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1554,7 +1553,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1574,7 +1573,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1600,7 +1599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1620,7 +1619,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1640,7 +1639,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1660,7 +1659,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1680,7 +1679,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1728,7 +1727,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -1772,7 +1771,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>51</v>
       </c>
@@ -1790,7 +1789,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1810,7 +1809,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1830,7 +1829,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -1850,7 +1849,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -1870,7 +1869,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1890,7 +1889,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1910,7 +1909,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1930,7 +1929,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -1950,7 +1949,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -1970,7 +1969,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -2016,7 +2015,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -2040,7 +2039,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>55</v>
       </c>
@@ -2058,7 +2057,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>56</v>
@@ -2099,7 +2098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -2165,7 +2164,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -2185,7 +2184,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -2205,7 +2204,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -2225,7 +2224,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44044</v>
       </c>
@@ -2245,7 +2244,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44075</v>
       </c>
@@ -2265,7 +2264,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44105</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44136</v>
       </c>
@@ -2311,7 +2310,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44166</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>62</v>
@@ -2357,7 +2356,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>65</v>
       </c>
@@ -2375,7 +2374,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -2395,7 +2394,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -2415,7 +2414,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -2435,7 +2434,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -2455,7 +2454,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -2475,7 +2474,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -2495,7 +2494,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -2515,7 +2514,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -2535,7 +2534,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -2555,7 +2554,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -2575,7 +2574,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -2595,7 +2594,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -2619,7 +2618,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>53</v>
@@ -2639,7 +2638,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>66</v>
       </c>
@@ -2657,7 +2656,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -2677,7 +2676,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -2697,7 +2696,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -2717,7 +2716,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -2737,7 +2736,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -2757,7 +2756,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44713</v>
       </c>
@@ -2777,7 +2776,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44743</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -2823,7 +2822,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -2843,7 +2842,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44866</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44896</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>47</v>
@@ -2943,7 +2942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>72</v>
       </c>
@@ -2961,7 +2960,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44927</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44958</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44986</v>
       </c>
@@ -3033,29 +3032,33 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45017</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45047</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -3064,12 +3067,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="49">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45078</v>
       </c>
@@ -3087,7 +3094,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45108</v>
       </c>
@@ -3105,7 +3112,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45139</v>
       </c>
@@ -3123,7 +3130,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45170</v>
       </c>
@@ -3141,7 +3148,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45200</v>
       </c>
@@ -3159,7 +3166,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45231</v>
       </c>
@@ -3177,7 +3184,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45261</v>
       </c>
@@ -3195,7 +3202,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45292</v>
       </c>
@@ -3213,7 +3220,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45323</v>
       </c>
@@ -3231,7 +3238,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45352</v>
       </c>
@@ -3249,7 +3256,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45383</v>
       </c>
@@ -3267,7 +3274,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45413</v>
       </c>
@@ -3285,7 +3292,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45444</v>
       </c>
@@ -3303,7 +3310,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45474</v>
       </c>
@@ -3321,7 +3328,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45505</v>
       </c>
@@ -3339,7 +3346,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45536</v>
       </c>
@@ -3357,7 +3364,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45566</v>
       </c>
@@ -3375,7 +3382,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45597</v>
       </c>
@@ -3393,7 +3400,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45627</v>
       </c>
@@ -3411,7 +3418,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45658</v>
       </c>
@@ -3429,7 +3436,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45689</v>
       </c>
@@ -3447,7 +3454,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45717</v>
       </c>
@@ -3465,7 +3472,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45748</v>
       </c>
@@ -3483,7 +3490,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45778</v>
       </c>
@@ -3501,7 +3508,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45809</v>
       </c>
@@ -3519,7 +3526,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45839</v>
       </c>
@@ -3537,7 +3544,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45870</v>
       </c>
@@ -3555,7 +3562,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45901</v>
       </c>
@@ -3573,7 +3580,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45931</v>
       </c>
@@ -3591,7 +3598,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45962</v>
       </c>
@@ -3609,7 +3616,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45992</v>
       </c>
@@ -3627,7 +3634,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46023</v>
       </c>
@@ -3645,7 +3652,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46054</v>
       </c>
@@ -3663,7 +3670,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46082</v>
       </c>
@@ -3681,7 +3688,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46113</v>
       </c>
@@ -3699,7 +3706,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46143</v>
       </c>
@@ -3717,7 +3724,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46174</v>
       </c>
@@ -3735,7 +3742,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46204</v>
       </c>
@@ -3753,7 +3760,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46235</v>
       </c>
@@ -3771,7 +3778,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46266</v>
       </c>
@@ -3789,7 +3796,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46296</v>
       </c>
@@ -3807,7 +3814,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46327</v>
       </c>
@@ -3825,7 +3832,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46357</v>
       </c>
@@ -3843,7 +3850,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46388</v>
       </c>
@@ -3861,7 +3868,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3877,7 +3884,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -3908,10 +3915,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3934,28 +3941,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3968,7 +3975,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3997,7 +4004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>95.24</v>
       </c>
@@ -4021,17 +4028,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4052,7 +4059,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4079,7 +4086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4105,7 +4112,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4131,7 +4138,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4157,7 +4164,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4183,7 +4190,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4235,7 +4242,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4261,7 +4268,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4281,7 +4288,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4301,7 +4308,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4342,7 +4349,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4384,7 +4391,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4426,7 +4433,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4447,7 +4454,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4468,7 +4475,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4489,7 +4496,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4510,7 +4517,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4552,7 +4559,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4573,7 +4580,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4594,7 +4601,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4636,7 +4643,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4657,7 +4664,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4678,7 +4685,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4720,7 +4727,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4750,7 +4757,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4759,7 +4766,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4768,7 +4775,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4777,7 +4784,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4786,7 +4793,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4795,7 +4802,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4804,7 +4811,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4813,7 +4820,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4822,7 +4829,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4831,7 +4838,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4840,7 +4847,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4849,7 +4856,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4858,7 +4865,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4867,7 +4874,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4876,7 +4883,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4885,7 +4892,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4894,7 +4901,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4903,7 +4910,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4912,7 +4919,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4921,7 +4928,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4930,7 +4937,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4939,7 +4946,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4948,7 +4955,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4957,7 +4964,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4966,7 +4973,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4975,7 +4982,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4984,7 +4991,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4993,7 +5000,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5002,7 +5009,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/ANGCAYA, FRANCIS.xlsx
+++ b/REGULAR/RE-ENCODE/ANGCAYA, FRANCIS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077DF13-3B1E-4386-9225-FE4E5C486433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -258,12 +259,18 @@
   </si>
   <si>
     <t>2/28 - 3/1/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -949,25 +956,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1274,34 +1281,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1329,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1349,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1369,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1370,7 +1377,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1383,7 +1390,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1400,7 +1407,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1444,7 +1451,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>150.24</v>
+        <v>150.49</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1454,12 +1461,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>340.87</v>
+        <v>341.12</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +1488,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1507,7 +1514,7 @@
         <v>43121</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1553,7 +1560,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1573,7 +1580,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1599,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1619,7 +1626,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1639,7 +1646,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1659,7 +1666,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1679,7 +1686,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1727,7 +1734,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1751,7 +1758,7 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -1771,7 +1778,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>51</v>
       </c>
@@ -1789,7 +1796,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1809,7 +1816,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1829,7 +1836,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -1849,7 +1856,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -1869,7 +1876,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1889,7 +1896,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1909,7 +1916,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1929,7 +1936,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -1949,7 +1956,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -1969,7 +1976,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -1995,7 +2002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -2015,7 +2022,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -2039,7 +2046,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>55</v>
       </c>
@@ -2057,7 +2064,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -2081,7 +2088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>56</v>
@@ -2098,7 +2105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -2118,7 +2125,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -2144,7 +2151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -2164,7 +2171,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -2184,7 +2191,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -2204,7 +2211,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -2224,7 +2231,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44044</v>
       </c>
@@ -2244,7 +2251,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44075</v>
       </c>
@@ -2264,7 +2271,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44105</v>
       </c>
@@ -2290,7 +2297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44136</v>
       </c>
@@ -2310,7 +2317,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44166</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>62</v>
@@ -2356,7 +2363,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>65</v>
       </c>
@@ -2374,7 +2381,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -2394,7 +2401,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -2414,7 +2421,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -2434,7 +2441,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -2454,7 +2461,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -2474,7 +2481,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -2494,7 +2501,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -2514,7 +2521,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -2534,7 +2541,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -2554,7 +2561,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -2574,7 +2581,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -2594,7 +2601,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -2618,7 +2625,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>53</v>
@@ -2638,7 +2645,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>66</v>
       </c>
@@ -2656,7 +2663,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -2676,7 +2683,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -2696,7 +2703,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -2716,7 +2723,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -2736,7 +2743,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -2756,7 +2763,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44713</v>
       </c>
@@ -2776,7 +2783,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44743</v>
       </c>
@@ -2802,7 +2809,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -2822,7 +2829,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -2842,7 +2849,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -2868,7 +2875,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44866</v>
       </c>
@@ -2894,7 +2901,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44896</v>
       </c>
@@ -2920,7 +2927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>47</v>
@@ -2942,7 +2949,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="48" t="s">
         <v>72</v>
       </c>
@@ -2960,7 +2967,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44927</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44958</v>
       </c>
@@ -3006,7 +3013,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44986</v>
       </c>
@@ -3032,7 +3039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45017</v>
       </c>
@@ -3052,20 +3059,22 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45047</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39">
         <v>1</v>
@@ -3076,13 +3085,15 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B86" s="20"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40"/>
+      <c r="B86" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="D86" s="39">
+        <v>1</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
@@ -3092,13 +3103,15 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B87" s="20"/>
+      <c r="K86" s="49">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40"/>
+      <c r="B87" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -3110,13 +3123,15 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B88" s="20"/>
+      <c r="K87" s="49">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -3125,14 +3140,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="49">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3148,9 +3167,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3166,9 +3185,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3184,9 +3203,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3202,9 +3221,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3220,9 +3239,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3238,9 +3257,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3256,9 +3275,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3274,9 +3293,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3292,9 +3311,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3310,9 +3329,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3328,9 +3347,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3346,9 +3365,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3364,9 +3383,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3382,9 +3401,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3400,9 +3419,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3418,9 +3437,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3436,9 +3455,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3454,9 +3473,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3472,9 +3491,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3490,9 +3509,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3508,9 +3527,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3526,9 +3545,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3544,9 +3563,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3562,9 +3581,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3580,9 +3599,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3598,9 +3617,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3616,9 +3635,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3634,9 +3653,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3652,9 +3671,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3670,9 +3689,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3688,9 +3707,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3706,9 +3725,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3724,9 +3743,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3742,9 +3761,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3760,9 +3779,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3778,9 +3797,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3796,9 +3815,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3814,9 +3833,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3832,9 +3851,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3850,9 +3869,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3868,8 +3887,10 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40">
+        <v>46327</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -3884,21 +3905,73 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3915,10 +3988,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3941,28 +4014,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3975,7 +4048,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4004,7 +4077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>95.24</v>
       </c>
@@ -4028,17 +4101,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4059,7 +4132,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4086,7 +4159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4112,7 +4185,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4138,7 +4211,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4164,7 +4237,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4190,7 +4263,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4216,7 +4289,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4242,7 +4315,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4268,7 +4341,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4288,7 +4361,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4308,7 +4381,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4328,7 +4401,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4349,7 +4422,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4370,7 +4443,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4391,7 +4464,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4412,7 +4485,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4433,7 +4506,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4454,7 +4527,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4475,7 +4548,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4496,7 +4569,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4517,7 +4590,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4538,7 +4611,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4559,7 +4632,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4580,7 +4653,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4601,7 +4674,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4622,7 +4695,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4643,7 +4716,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4664,7 +4737,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4685,7 +4758,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4706,7 +4779,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4727,7 +4800,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4748,7 +4821,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4757,7 +4830,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4766,7 +4839,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4775,7 +4848,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4784,7 +4857,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4793,7 +4866,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4802,7 +4875,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4811,7 +4884,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4820,7 +4893,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4829,7 +4902,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4838,7 +4911,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4847,7 +4920,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4856,7 +4929,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4865,7 +4938,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4874,7 +4947,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4883,7 +4956,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4892,7 +4965,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4901,7 +4974,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4910,7 +4983,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4919,7 +4992,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4928,7 +5001,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4937,7 +5010,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4946,7 +5019,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4955,7 +5028,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4964,7 +5037,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4973,7 +5046,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4982,7 +5055,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4991,7 +5064,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5000,7 +5073,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5009,7 +5082,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
